--- a/2016/ILN001MAD/4_PNEUMATICS/docs/project_planning.xlsx
+++ b/2016/ILN001MAD/4_PNEUMATICS/docs/project_planning.xlsx
@@ -56,11 +56,9 @@
 Pneumatics in the industry</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Building a pump structure
+    <t>Building a pump structure
 What is your best vegetable?
 </t>
-    </r>
   </si>
   <si>
     <t>Hacking a still spring water bottle
@@ -98,7 +96,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -136,12 +134,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,10 +215,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -249,7 +237,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -351,7 +339,7 @@
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -363,7 +351,7 @@
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -382,7 +370,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="2" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
